--- a/files/downloads/excel/organizese.xlsx
+++ b/files/downloads/excel/organizese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-03-28</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,18 +482,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alimentação</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-03-28</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,49 +503,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>saida</t>
+          <t>entrada</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54.54</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pessoal</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-03-26</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sem descrição</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>saida</t>
-        </is>
-      </c>
+          <t>Total Geral</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>-121.19</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/files/downloads/excel/organizese.xlsx
+++ b/files/downloads/excel/organizese.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-04-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,22 +478,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>saida</t>
+          <t>entrada</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,11 +503,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>entrada</t>
+          <t>saida</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>178.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>950</v>
+        <v>-157.59</v>
       </c>
     </row>
   </sheetData>
